--- a/large_instances_Robustness_results_all.xlsx
+++ b/large_instances_Robustness_results_all.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangningwei/Documents/学习资料/写论文/程子涵论文/DR-Scheduling/solve_alg_robustness/rubustness_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangningwei/Documents/学习资料/写论文/程子涵论文/DR-Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E561D-53E7-7C4E-B787-E53E9D333E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11EB8E-12CC-9146-A0F9-79C367E0F2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1080" windowWidth="29440" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="4260" windowWidth="28560" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -588,6 +589,63 @@
   <si>
     <t>\% &amp;</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;0.001$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.25\mu]$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.3\mu]$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.35\mu]$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.4\mu]$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.5\mu]$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.25\mu]$</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\% &amp;</t>
+  </si>
+  <si>
+    <t>&amp; &amp;</t>
+  </si>
+  <si>
+    <t>$&lt;0.001$</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.3\mu]$</t>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.35\mu]$</t>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.4\mu]$</t>
+  </si>
+  <si>
+    <t>$\sigma \in [0.1\mu,0.5\mu]$</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -722,7 +780,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -825,44 +883,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1245,34 +1306,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="21.5" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="19" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2274,43 +2335,43 @@
       <c r="C6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>32.411000000000001</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="37">
         <v>0.15967999999999999</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>600</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>28.276</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>1.0498E-2</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>5.3010000000000004E-4</v>
       </c>
       <c r="O6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="36">
         <v>27.981999999999999</v>
       </c>
       <c r="Q6" s="32" t="s">
@@ -2322,7 +2383,7 @@
       <c r="S6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="36">
         <v>14.763</v>
       </c>
       <c r="U6" s="33" t="s">
@@ -2336,43 +2397,43 @@
       <c r="C7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>664.22</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="37">
         <v>0.74324000000000001</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="34">
         <v>600</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>384.82</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="37">
         <v>8.5508000000000008E-3</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>4.1300000000000001E-4</v>
       </c>
       <c r="O7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="36">
         <v>381.58</v>
       </c>
       <c r="Q7" s="32" t="s">
@@ -2384,7 +2445,7 @@
       <c r="S7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="36">
         <v>15.401</v>
       </c>
       <c r="U7" s="33" t="s">
@@ -2398,43 +2459,43 @@
       <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>1101.2</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="37">
         <v>0.62233000000000005</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <v>600</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>682.85</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="37">
         <v>8.5965E-3</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>2.5670000000000001E-4</v>
       </c>
       <c r="O8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="36">
         <v>677.02</v>
       </c>
       <c r="Q8" s="32" t="s">
@@ -2446,7 +2507,7 @@
       <c r="S8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="36">
         <v>16.081</v>
       </c>
       <c r="U8" s="33" t="s">
@@ -2460,43 +2521,43 @@
       <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>2643</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="37">
         <v>1.7423</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <v>600</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="36">
         <v>975.99</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="37">
         <v>8.3151000000000006E-3</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="O9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="36">
         <v>967.92</v>
       </c>
       <c r="Q9" s="32" t="s">
@@ -2508,7 +2569,7 @@
       <c r="S9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="36">
         <v>16.724</v>
       </c>
       <c r="U9" s="33" t="s">
@@ -2522,43 +2583,43 @@
       <c r="C10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>2194.4</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="37">
         <v>0.76739999999999997</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>600</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>1249.2</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="37">
         <v>7.7204999999999999E-3</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <v>3.815E-4</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="36">
         <v>1239.5999999999999</v>
       </c>
       <c r="Q10" s="32" t="s">
@@ -2570,7 +2631,7 @@
       <c r="S10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="36">
         <v>17.344999999999999</v>
       </c>
       <c r="U10" s="33" t="s">
@@ -2584,49 +2645,49 @@
       <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <f>AVERAGE((D6:D10))</f>
         <v>1327.0462</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="41">
-        <f t="shared" ref="E11:T11" si="0">AVERAGE((F6:F10))</f>
+      <c r="F11" s="39">
+        <f t="shared" ref="F11:T11" si="0">AVERAGE((F6:F10))</f>
         <v>0.8069900000000001</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
         <v>664.22719999999993</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="38">
         <f t="shared" si="0"/>
         <v>8.7361799999999996E-3</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <f t="shared" si="0"/>
         <v>3.6426000000000004E-4</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="38">
         <f t="shared" si="0"/>
         <v>658.82039999999995</v>
       </c>
@@ -2639,7 +2700,7 @@
       <c r="S11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="38">
         <f t="shared" si="0"/>
         <v>16.062800000000003</v>
       </c>
@@ -2648,67 +2709,62 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="U6" r:id="rId1" xr:uid="{2B73A9FF-F6DA-D444-A7C7-713728399D4B}"/>
-    <hyperlink ref="U7:U10" r:id="rId2" display="\\" xr:uid="{1D0E18D4-ABE4-FA4F-9F1D-EC567720B34B}"/>
-    <hyperlink ref="U11" r:id="rId3" xr:uid="{2C0FB15A-5DB7-1642-9693-1AFCA6DBCC7F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2718,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E76468-861D-F845-A7F1-DD523F587B58}">
   <dimension ref="D10:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2731,56 +2787,40 @@
       <c r="E10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="38">
-        <v>32.411000000000001</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0.15967999999999999</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="36">
-        <v>600</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="38">
-        <v>28.276</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="39">
-        <v>1.0498E-2</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="37">
-        <v>5.3010000000000004E-4</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="38">
-        <v>27.981999999999999</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="38">
-        <v>14.763</v>
+      <c r="F10" s="34">
+        <v>647.6</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34">
+        <v>0.55847999999999998</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34">
+        <v>600</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34">
+        <v>417.86</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34">
+        <v>7.7089000000000003E-3</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34">
+        <v>7.6940000000000005E-4</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34">
+        <v>414.66</v>
+      </c>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34">
+        <v>0</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34">
+        <v>2.5329999999999999</v>
       </c>
       <c r="W10" s="33" t="s">
         <v>28</v>
@@ -2793,56 +2833,40 @@
       <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="38">
-        <v>664.22</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0.74324000000000001</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="36">
-        <v>600</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="38">
-        <v>384.82</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="39">
-        <v>8.5508000000000008E-3</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="37">
-        <v>4.1300000000000001E-4</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="38">
-        <v>381.58</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="38">
-        <v>15.401</v>
+      <c r="F11" s="34">
+        <v>679.4</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34">
+        <v>0.44792999999999999</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34">
+        <v>600</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34">
+        <v>472.09</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34">
+        <v>7.6201000000000003E-3</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34">
+        <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34">
+        <v>468.51</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34">
+        <v>0</v>
+      </c>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34">
+        <v>2.7612000000000001</v>
       </c>
       <c r="W11" s="33" t="s">
         <v>28</v>
@@ -2855,56 +2879,40 @@
       <c r="E12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="38">
-        <v>1101.2</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="39">
-        <v>0.62233000000000005</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="36">
-        <v>600</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="38">
-        <v>682.85</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="39">
-        <v>8.5965E-3</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="37">
-        <v>2.5670000000000001E-4</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="38">
-        <v>677.02</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="38">
-        <v>16.081</v>
+      <c r="F12" s="34">
+        <v>985.79</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34">
+        <v>600</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34">
+        <v>496.1</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34">
+        <v>8.5915000000000002E-3</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34">
+        <v>2.3939999999999999E-4</v>
+      </c>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34">
+        <v>491.83</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34">
+        <v>0</v>
+      </c>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34">
+        <v>3.0150999999999999</v>
       </c>
       <c r="W12" s="33" t="s">
         <v>28</v>
@@ -2917,56 +2925,40 @@
       <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="38">
-        <v>2643</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1.7423</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="36">
-        <v>600</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="38">
-        <v>975.99</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="39">
-        <v>8.3151000000000006E-3</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="37">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="38">
-        <v>967.92</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="38">
-        <v>16.724</v>
+      <c r="F13" s="34">
+        <v>995.84</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34">
+        <v>600</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34">
+        <v>549.79999999999995</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34">
+        <v>1.1329000000000001E-2</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34">
+        <v>2.352E-4</v>
+      </c>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34">
+        <v>543.64</v>
+      </c>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34">
+        <v>0</v>
+      </c>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34">
+        <v>3.2814999999999999</v>
       </c>
       <c r="W13" s="33" t="s">
         <v>28</v>
@@ -2979,117 +2971,101 @@
       <c r="E14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="38">
-        <v>2194.4</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="39">
-        <v>0.76739999999999997</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="36">
-        <v>600</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="38">
-        <v>1249.2</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="39">
-        <v>7.7204999999999999E-3</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="37">
-        <v>3.815E-4</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="38">
-        <v>1239.5999999999999</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="38">
-        <v>17.344999999999999</v>
+      <c r="F14" s="34">
+        <v>957.07</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34">
+        <v>0.65583999999999998</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34">
+        <v>600</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34">
+        <v>5.6157000000000004E-3</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34">
+        <v>7.0520000000000001E-4</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34">
+        <v>575.95000000000005</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34">
+        <v>0</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34">
+        <v>3.4478</v>
       </c>
       <c r="W14" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <f t="shared" ref="H15" si="0">AVERAGE((H10:H14))</f>
-        <v>0.8069900000000001</v>
-      </c>
-      <c r="N15" s="41">
+        <v>0.69852199999999998</v>
+      </c>
+      <c r="N15" s="39">
         <f t="shared" ref="N15" si="1">AVERAGE((N10:N14))</f>
-        <v>8.7361799999999996E-3</v>
+        <v>8.1730400000000012E-3</v>
       </c>
     </row>
     <row r="22" spans="4:23">
       <c r="D22" s="32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="36">
         <v>32.411000000000001</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="42">
         <f>H10*100</f>
-        <v>15.967999999999998</v>
+        <v>55.847999999999999</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="34">
         <v>600</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>28.276</v>
       </c>
       <c r="M22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="43">
         <f>N10*100</f>
-        <v>1.0498000000000001</v>
+        <v>0.77089000000000008</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="37">
-        <v>5.3010000000000004E-4</v>
+      <c r="P22" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="36">
         <v>27.981999999999999</v>
       </c>
       <c r="S22" s="32" t="s">
@@ -3101,8 +3077,8 @@
       <c r="U22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="38">
-        <v>14.763</v>
+      <c r="V22" s="35">
+        <v>2.5329999999999999</v>
       </c>
       <c r="W22" s="33" t="s">
         <v>28</v>
@@ -3110,50 +3086,50 @@
     </row>
     <row r="23" spans="4:23">
       <c r="D23" s="32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="36">
         <v>664.22</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <f t="shared" ref="H23:H26" si="2">H11*100</f>
-        <v>74.323999999999998</v>
+        <v>44.792999999999999</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="34">
         <v>600</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>384.82</v>
       </c>
       <c r="M23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="43">
         <f t="shared" ref="N23:N26" si="3">N11*100</f>
-        <v>0.85508000000000006</v>
+        <v>0.76201000000000008</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="37">
-        <v>4.1300000000000001E-4</v>
+      <c r="P23" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="38">
+      <c r="R23" s="36">
         <v>381.58</v>
       </c>
       <c r="S23" s="32" t="s">
@@ -3165,8 +3141,8 @@
       <c r="U23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="38">
-        <v>15.401</v>
+      <c r="V23" s="35">
+        <v>2.6217999999999999</v>
       </c>
       <c r="W23" s="33" t="s">
         <v>28</v>
@@ -3174,50 +3150,50 @@
     </row>
     <row r="24" spans="4:23">
       <c r="D24" s="32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="36">
         <v>1101.2</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <f t="shared" si="2"/>
-        <v>62.233000000000004</v>
+        <v>99.69</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="34">
         <v>600</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>682.85</v>
       </c>
       <c r="M24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="43">
         <f t="shared" si="3"/>
-        <v>0.85965000000000003</v>
+        <v>0.85914999999999997</v>
       </c>
       <c r="O24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="37">
-        <v>2.5670000000000001E-4</v>
+      <c r="P24" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="38">
+      <c r="R24" s="36">
         <v>677.02</v>
       </c>
       <c r="S24" s="32" t="s">
@@ -3229,8 +3205,8 @@
       <c r="U24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="38">
-        <v>16.081</v>
+      <c r="V24" s="35">
+        <v>2.7111000000000001</v>
       </c>
       <c r="W24" s="33" t="s">
         <v>28</v>
@@ -3238,50 +3214,50 @@
     </row>
     <row r="25" spans="4:23">
       <c r="D25" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="36">
         <v>2643</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="42">
         <f t="shared" si="2"/>
-        <v>174.23</v>
+        <v>83.346000000000004</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>600</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>975.99</v>
       </c>
       <c r="M25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="43">
         <f t="shared" si="3"/>
-        <v>0.83151000000000008</v>
+        <v>1.1329</v>
       </c>
       <c r="O25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="37">
-        <v>2.4000000000000001E-4</v>
+      <c r="P25" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="36">
         <v>967.92</v>
       </c>
       <c r="S25" s="32" t="s">
@@ -3293,8 +3269,8 @@
       <c r="U25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="38">
-        <v>16.724</v>
+      <c r="V25" s="35">
+        <v>2.806</v>
       </c>
       <c r="W25" s="33" t="s">
         <v>28</v>
@@ -3302,50 +3278,50 @@
     </row>
     <row r="26" spans="4:23">
       <c r="D26" s="32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="36">
         <v>2194.4</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="42">
         <f t="shared" si="2"/>
-        <v>76.739999999999995</v>
+        <v>65.584000000000003</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="34">
         <v>600</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>1249.2</v>
       </c>
       <c r="M26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="43">
         <f t="shared" si="3"/>
-        <v>0.77205000000000001</v>
+        <v>0.56157000000000001</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="37">
-        <v>3.815E-4</v>
+      <c r="P26" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q26" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="38">
+      <c r="R26" s="36">
         <v>1239.5999999999999</v>
       </c>
       <c r="S26" s="32" t="s">
@@ -3357,8 +3333,8 @@
       <c r="U26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="38">
-        <v>17.344999999999999</v>
+      <c r="V26" s="35">
+        <v>2.8959999999999999</v>
       </c>
       <c r="W26" s="33" t="s">
         <v>28</v>
@@ -3371,49 +3347,48 @@
       <c r="E27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="38">
         <f>AVERAGE((F22:F26))</f>
         <v>1327.0462</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="44">
         <f t="shared" ref="H27:V27" si="4">AVERAGE((H22:H26))</f>
-        <v>80.698999999999998</v>
+        <v>69.852200000000011</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="40">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="38">
         <f t="shared" si="4"/>
         <v>664.22719999999993</v>
       </c>
       <c r="M27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="38">
         <f t="shared" si="4"/>
-        <v>0.87361800000000012</v>
+        <v>0.81730400000000003</v>
       </c>
       <c r="O27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P27" s="43">
-        <f t="shared" si="4"/>
-        <v>3.6426000000000004E-4</v>
+      <c r="P27" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="40">
+      <c r="R27" s="38">
         <f t="shared" si="4"/>
         <v>658.82039999999995</v>
       </c>
@@ -3426,9 +3401,9 @@
       <c r="U27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="40">
+      <c r="V27" s="41">
         <f t="shared" si="4"/>
-        <v>16.062800000000003</v>
+        <v>2.7135800000000003</v>
       </c>
       <c r="W27" s="33" t="s">
         <v>28</v>
@@ -3436,14 +3411,602 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="W10" r:id="rId1" xr:uid="{F37CD06D-A058-1447-A8AF-4CC1B5CF1DCE}"/>
-    <hyperlink ref="W11:W14" r:id="rId2" display="\\" xr:uid="{1457B6FA-7672-BA47-9FD1-7C806C397F02}"/>
-    <hyperlink ref="W22" r:id="rId3" xr:uid="{2EA69407-C90B-B24C-BE4E-4EBEF5CB8DE8}"/>
-    <hyperlink ref="W23:W26" r:id="rId4" display="\\" xr:uid="{773BB01C-F6C5-2946-AEE6-40A7E096BA2A}"/>
-    <hyperlink ref="W27" r:id="rId5" xr:uid="{E930928D-173B-1449-9463-8BCCA14E1A81}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61E1AB-6700-5A4F-ACFE-05BEA5802774}">
+  <dimension ref="B3:AN15"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:AN14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="3" spans="2:40">
+      <c r="F3" s="34">
+        <v>647.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="F4" s="34">
+        <v>679.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="F5" s="34">
+        <v>985.79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="F6" s="34">
+        <v>995.84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="F7" s="34">
+        <v>957.07</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="34">
+        <v>647.6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>15.967999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>28.276</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10">
+        <v>1.0498000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10">
+        <v>27.981999999999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="34">
+        <v>647.6</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34">
+        <v>0.55847999999999998</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34">
+        <v>600</v>
+      </c>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34">
+        <v>417.86</v>
+      </c>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34">
+        <v>7.7089000000000003E-3</v>
+      </c>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34">
+        <v>7.6940000000000005E-4</v>
+      </c>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34">
+        <v>414.66</v>
+      </c>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34">
+        <v>2.5329999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="34">
+        <v>679.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>74.323999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>600</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>384.82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>0.85508000000000006</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11">
+        <v>381.58</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11">
+        <v>2.6217999999999999</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="34">
+        <v>679.4</v>
+      </c>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34">
+        <v>0.44792999999999999</v>
+      </c>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34">
+        <v>600</v>
+      </c>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34">
+        <v>472.09</v>
+      </c>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34">
+        <v>7.6201000000000003E-3</v>
+      </c>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34">
+        <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34">
+        <v>468.51</v>
+      </c>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34">
+        <v>2.7612000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="34">
+        <v>985.79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>62.233000000000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <v>682.85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12">
+        <v>677.02</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12">
+        <v>2.7111000000000001</v>
+      </c>
+      <c r="U12" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="34">
+        <v>985.79</v>
+      </c>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34">
+        <v>600</v>
+      </c>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34">
+        <v>496.1</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34">
+        <v>8.5915000000000002E-3</v>
+      </c>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34">
+        <v>2.3939999999999999E-4</v>
+      </c>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34">
+        <v>491.83</v>
+      </c>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34">
+        <v>3.0150999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="34">
+        <v>995.84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>174.23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>975.99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>0.83151000000000008</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13">
+        <v>967.92</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13">
+        <v>2.806</v>
+      </c>
+      <c r="U13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="34">
+        <v>995.84</v>
+      </c>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34">
+        <v>600</v>
+      </c>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34">
+        <v>549.79999999999995</v>
+      </c>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34">
+        <v>1.1329000000000001E-2</v>
+      </c>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34">
+        <v>2.352E-4</v>
+      </c>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34">
+        <v>543.64</v>
+      </c>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34">
+        <v>3.2814999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="34">
+        <v>957.07</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>600</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14">
+        <v>1249.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>0.77205000000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>1239.5999999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="U14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="34">
+        <v>957.07</v>
+      </c>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34">
+        <v>0.65583999999999998</v>
+      </c>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34">
+        <v>600</v>
+      </c>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34">
+        <v>5.6157000000000004E-3</v>
+      </c>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34">
+        <v>7.0520000000000001E-4</v>
+      </c>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34">
+        <v>575.95000000000005</v>
+      </c>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34">
+        <v>3.4478</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE((D10:D14))</f>
+        <v>853.14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE((F10:F14))</f>
+        <v>80.698999999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE((H10:H14))</f>
+        <v>600</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE((J10:J14))</f>
+        <v>664.22719999999993</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE((L10:L14))</f>
+        <v>0.87361800000000012</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGE((P10:P14))</f>
+        <v>658.82039999999995</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE((T10:T14))</f>
+        <v>2.7135800000000003</v>
+      </c>
+      <c r="U15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>